--- a/prep_and_checklists/Kohls/Kohls_2025-05-02_0.xlsx
+++ b/prep_and_checklists/Kohls/Kohls_2025-05-02_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Kohls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B886A296-1DF0-3E40-BED7-77D5BF1A044B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D980D2-DED7-FE40-B545-78A390B92866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32740" yWindow="140" windowWidth="30240" windowHeight="17820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_sheet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="95">
   <si>
     <t>Green Salad</t>
   </si>
@@ -200,9 +200,6 @@
     <t>Butter beans</t>
   </si>
   <si>
-    <t>Broccolini</t>
-  </si>
-  <si>
     <t>Cauliflower</t>
   </si>
   <si>
@@ -279,6 +276,36 @@
   </si>
   <si>
     <t>7pm - ENTREES SERVED</t>
+  </si>
+  <si>
+    <t>6cs</t>
+  </si>
+  <si>
+    <t>12ct</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1 cs</t>
+  </si>
+  <si>
+    <t>1 cs * see chef mark</t>
+  </si>
+  <si>
+    <t>1 x clam shell</t>
+  </si>
+  <si>
+    <t>4x sides</t>
+  </si>
+  <si>
+    <t>12 ct</t>
+  </si>
+  <si>
+    <t>* in-house</t>
+  </si>
+  <si>
+    <t>* see Chef mark</t>
   </si>
 </sst>
 </file>
@@ -327,6 +354,7 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -696,11 +724,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -710,12 +739,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -731,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -739,7 +768,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -747,7 +776,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -755,7 +784,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -775,7 +804,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -783,7 +812,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -791,7 +820,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -799,7 +828,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -807,7 +836,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -815,7 +844,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -823,7 +852,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -831,7 +860,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -839,7 +868,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -859,7 +888,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -867,7 +896,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -875,7 +904,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -883,7 +912,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -891,7 +920,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -899,28 +928,28 @@
         <v>23</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>1</v>
@@ -928,10 +957,10 @@
     </row>
     <row r="35" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="19" x14ac:dyDescent="0.2">
@@ -939,7 +968,7 @@
         <v>24</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E36" s="7"/>
     </row>
@@ -948,16 +977,16 @@
         <v>25</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E38" s="7"/>
     </row>
@@ -987,7 +1016,7 @@
         <v>28</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E42" s="7"/>
     </row>
@@ -1023,25 +1052,33 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup scale="90" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:C28"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.33203125" customWidth="1"/>
-    <col min="2" max="2" width="56" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" ht="40" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>30</v>
@@ -1057,7 +1094,9 @@
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="C3" s="6" t="s">
         <v>34</v>
       </c>
@@ -1066,61 +1105,75 @@
       <c r="A4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="C4" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="C5" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="C6" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="C7" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="C8" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="C9" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="C10" s="6" t="s">
         <v>37</v>
       </c>
@@ -1129,16 +1182,20 @@
       <c r="A11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="C11" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="C12" s="6" t="s">
         <v>46</v>
       </c>
@@ -1147,7 +1204,9 @@
       <c r="A13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="C13" s="6" t="s">
         <v>34</v>
       </c>
@@ -1156,7 +1215,9 @@
       <c r="A14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="C14" s="6" t="s">
         <v>34</v>
       </c>
@@ -1165,43 +1226,53 @@
       <c r="A15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="C15" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="40" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="C16" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="40" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="C17" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="40" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="C18" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="40" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="C19" s="6" t="s">
         <v>56</v>
       </c>
@@ -1210,16 +1281,20 @@
       <c r="A20" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="C20" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="C21" s="6" t="s">
         <v>37</v>
       </c>
@@ -1228,7 +1303,9 @@
       <c r="A22" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="C22" s="6" t="s">
         <v>34</v>
       </c>
@@ -1237,25 +1314,31 @@
       <c r="A23" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="C23" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="C24" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="C25" s="6" t="s">
         <v>34</v>
       </c>
@@ -1264,7 +1347,9 @@
       <c r="A26" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="C26" s="6" t="s">
         <v>34</v>
       </c>
@@ -1273,21 +1358,15 @@
       <c r="A27" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="C27" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="81" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>